--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -475,12 +475,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>attribute of location</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,30 +489,25 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,69 +515,59 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A geographical location within a country where the intervention takes place.</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+          <t>BCIO:026008</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -594,52 +579,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -649,28 +629,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">developing country </t>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -680,54 +660,59 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>developed country</t>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENVO:01000856</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>urban area</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Incorporated populated place</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -737,54 +722,59 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ENVO:01000856</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>rural area</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -792,9 +782,9 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>ENVO:01000772</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
@@ -832,13 +822,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -846,7 +836,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -856,28 +846,28 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -887,33 +877,33 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>research lab</t>
+          <t>bus; train; plane</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -921,61 +911,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -985,59 +970,54 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1045,30 +1025,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1076,73 +1056,73 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1150,13 +1130,13 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>dentist facility</t>
+          <t>path or pavement for pedestrians</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1168,7 +1148,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1176,44 +1156,39 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>path or pavement for cyclists</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1223,142 +1198,142 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1368,28 +1343,28 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1401,28 +1376,38 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1430,13 +1415,13 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>rehabilitation facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1444,16 +1429,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1462,38 +1447,43 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>drug or alcohol rehabilitation facility</t>
+          <t>residential care or assisted living</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1503,28 +1493,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1534,75 +1524,85 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>supermarket; market; shopping centre</t>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>educational facility</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1614,33 +1614,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1649,86 +1644,81 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>middle school</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>early years facility</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1736,13 +1726,13 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1754,21 +1744,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1778,28 +1768,28 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1811,21 +1801,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1835,59 +1825,54 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1897,28 +1882,33 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>arts and entertainment facility</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -1926,16 +1916,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1943,13 +1933,13 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -1957,30 +1947,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -1992,21 +1982,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2016,28 +2006,28 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2045,56 +2035,61 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2106,64 +2101,64 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2171,25 +2166,30 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2197,13 +2197,13 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>path or pavement for pedestrians</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2215,21 +2215,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2239,59 +2239,49 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2303,21 +2293,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>community facility</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2325,30 +2315,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2356,30 +2346,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2387,66 +2377,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2456,28 +2436,28 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>mobile van</t>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2487,33 +2467,69 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>car; bicycle; motorbike</t>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BCIO:026040</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,32 +443,32 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -494,12 +494,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,12 @@
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
@@ -551,15 +551,15 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A geographical location within a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
@@ -568,12 +568,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>attribute of location</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -582,10 +582,15 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -594,13 +599,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>area social and economic condition</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -608,160 +613,165 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENVO:01000856</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Incorporated populated place</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>ENVO:01000856</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -770,167 +780,147 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>road</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>ENVO:01000772</t>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -938,171 +928,166 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>path or pavement for cyclists</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>student hall</t>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1111,157 +1096,167 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1269,82 +1264,87 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>care home facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1352,47 +1352,52 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>NCIT:C53536</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1401,76 +1406,86 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1479,7 +1494,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1487,78 +1502,73 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1567,45 +1577,45 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1614,64 +1624,69 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>high school</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1679,30 +1694,30 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1710,16 +1725,16 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1728,7 +1743,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1736,56 +1751,61 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1793,87 +1813,87 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used for exercising.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1881,30 +1901,25 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1912,166 +1927,171 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>prison</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>factory facility</t>
+          <t>educational facility</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2080,24 +2100,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2106,81 +2126,76 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2189,24 +2204,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2215,86 +2230,81 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2303,217 +2313,223 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>urban area</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>private transportation</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BCIO:026006</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BCIO:026003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>geographic location</t>
+          <t>attribute of location</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,15 +489,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -506,13 +501,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>area social and economic condition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -520,77 +515,77 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>United Kingdom; Spain</t>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+          <t>developed country</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BCIO:026005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -599,13 +594,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -613,15 +608,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -630,55 +620,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -687,80 +672,65 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -768,10 +738,15 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -780,29 +755,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -811,29 +786,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -842,24 +817,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>rehabilitation facility</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+          <t>A facility to assist in physical or addiction recovery</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -868,24 +848,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -894,7 +874,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -902,16 +882,21 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>path or pavement for pedestrians</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -920,7 +905,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -928,16 +913,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>path or pavement for cyclists</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -946,29 +936,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -977,60 +962,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>grassland area</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1039,24 +1009,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>BCIO:026021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1065,29 +1035,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1096,158 +1066,143 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>polyclinic</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>research lab</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>army; navy; air force</t>
+          <t>supermarket; market; shopping centre</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1256,55 +1211,50 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>polyclinic</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1313,7 +1263,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1321,52 +1271,37 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>school facility</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1375,29 +1310,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1406,29 +1336,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1437,24 +1367,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1463,7 +1393,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1471,21 +1401,21 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1494,7 +1424,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1502,16 +1432,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>care home facility</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1520,29 +1450,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1551,24 +1486,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>military facility</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1577,45 +1517,60 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>prison</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1624,38 +1579,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>library facility</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1663,23 +1613,23 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>hospitality and catering facility</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>diner; restaurant; pub; bar</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
@@ -1703,21 +1653,21 @@
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1725,16 +1675,21 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1743,7 +1698,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1751,30 +1706,30 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
+          <t>YMCA; working mens club</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1782,78 +1737,83 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>sport and exercise facility</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>bedsit</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1862,29 +1822,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>student hall</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1893,24 +1853,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>retirement home</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1919,7 +1884,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1927,171 +1892,171 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>multiple occupancy residence</t>
+          <t>homeless setting</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>retirement home</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>student hall</t>
+          <t>Hostels; BandB; emergency accomnodation</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2100,24 +2065,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>university facility</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2126,76 +2096,76 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>early years facility</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>school facility</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2204,24 +2174,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2230,55 +2200,60 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>high school</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2287,24 +2262,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>office facility</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2313,24 +2293,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2339,24 +2324,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
+          <t>An outdoor environment set in an expanse of water.</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2365,24 +2350,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>park</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2391,24 +2381,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>rural area</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2417,24 +2412,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>mobile van</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2443,93 +2443,93 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>car; bicycle; motorbike</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">developing country </t>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -448,27 +448,27 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
@@ -501,13 +501,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>area social and economic condition</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -515,100 +515,85 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rural area</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -620,90 +605,105 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>architectural structure</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -712,25 +712,30 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -738,38 +743,33 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>factory facility</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -781,38 +781,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -820,44 +815,39 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>path or pavement for pedestrians</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -869,21 +859,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -893,28 +883,28 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -924,28 +914,28 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bedsit</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -955,28 +945,28 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>retirement home</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -986,28 +976,28 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>student hall</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>retail facility</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1017,28 +1007,28 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1046,30 +1036,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>public transportation</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1079,28 +1069,33 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>polyclinic</t>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1112,21 +1107,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1136,28 +1131,28 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1167,28 +1162,28 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>NCIT:C53536</t>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>doctor-led primary care facility</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1198,54 +1193,59 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A geographical location within a country.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1255,75 +1255,85 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1335,21 +1345,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1359,40 +1369,45 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1400,44 +1415,39 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>arts and entertainment facility</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1445,16 +1455,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>food bank; recycling centre</t>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1462,25 +1472,30 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1488,13 +1503,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1502,16 +1517,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1519,13 +1534,13 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>hospitality and catering facility</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1533,61 +1548,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1597,14 +1607,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1612,13 +1622,13 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1628,40 +1638,45 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1669,13 +1684,13 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1687,7 +1702,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1695,56 +1710,56 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>early years facility</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1752,34 +1767,44 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1787,16 +1812,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>high school</t>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1805,12 +1830,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>middle school</t>
+          <t>community outpatient clinic facility</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -1822,47 +1847,52 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1874,83 +1904,68 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -1960,33 +1975,28 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -1994,30 +2004,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2025,61 +2035,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BCIO:026010</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2089,28 +2094,28 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BFO_0000029</t>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2120,54 +2125,59 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NCIT_C141286</t>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>homeless setting</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2175,30 +2185,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2206,66 +2216,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>educational facility</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2277,104 +2277,99 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>path or pavement</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2386,21 +2381,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2412,21 +2407,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2436,28 +2431,28 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2467,28 +2462,28 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -2496,30 +2491,35 @@
           <t>Setting</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>prison</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -448,14 +448,14 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="K1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -463,24 +463,24 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>attribute of location</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -489,25 +489,30 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>population and resource density</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -515,7 +520,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -527,99 +532,114 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>urban area</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>road</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>park</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -627,123 +647,108 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BCIO:026050</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -755,156 +760,171 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>beach</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>private transportation</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>mobile intervention venue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -912,216 +932,196 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1131,28 +1131,28 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>mobile van</t>
+          <t xml:space="preserve">developing country </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>car; bicycle; motorbike</t>
+          <t>developed country</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>GAZ:00000448</t>
         </is>
@@ -1310,7 +1310,7 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>OMRSE:00000062</t>
         </is>
@@ -1319,47 +1319,52 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>factory facility</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>community facility</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1369,28 +1374,28 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>religious facility</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1400,14 +1405,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1415,25 +1420,30 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>hospitality and catering facility</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A community facility used to serve food.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1441,13 +1451,13 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>social centre or Community Hall facility</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1457,7 +1467,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1505,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1503,13 +1513,13 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>social centre or Community Hall facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1519,14 +1529,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>YMCA; working mens club</t>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1534,70 +1544,70 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>religious facility</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1605,30 +1615,35 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>pharmacy facility</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1636,16 +1651,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1653,13 +1668,13 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1667,56 +1682,61 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>rehabilitation facility</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
+          <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -1724,30 +1744,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>OMRSE:00000106</t>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026018</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>drug or alcohol rehabilitation facility</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -1759,7 +1779,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1767,13 +1787,13 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>temporary residence</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -1783,14 +1803,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1798,13 +1818,13 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>community healthcare facility</t>
+          <t>homeless setting</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1814,40 +1834,45 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>polyclinic</t>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1855,13 +1880,13 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1869,16 +1894,16 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1887,12 +1912,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>hospital outpatient clinic facility</t>
+          <t>community outpatient clinic facility</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -1904,28 +1929,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1933,25 +1963,30 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>care home facility</t>
+          <t>psychiatric facility</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1959,13 +1994,13 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -1973,47 +2008,42 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026018</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>drug or alcohol rehabilitation facility</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2021,13 +2051,13 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>temporary residence</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2035,30 +2065,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2070,52 +2100,42 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2123,30 +2143,30 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>student hall</t>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>doctor-led primary care facility</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2156,14 +2176,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>retirement home</t>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2171,13 +2191,13 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>homeless setting</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2185,61 +2205,56 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>educational facility</t>
+          <t>factory facility</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2251,64 +2266,64 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>early years facility</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2316,25 +2331,30 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Setting</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2342,34 +2362,39 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>university facility</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2381,33 +2406,28 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2416,74 +2436,64 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>primary school</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>retail facility</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -2491,45 +2501,35 @@
           <t>Setting</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>research lab</t>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>criminal justice facility</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>Setting</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>prison</t>
         </is>
       </c>
     </row>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,22 +449,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -494,7 +494,7 @@
           <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
         </is>
@@ -535,12 +535,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -550,12 +550,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -567,12 +567,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000141</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -580,63 +580,63 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+          <t>BFO:0000141</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -648,27 +648,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>mobile intervention venue</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>mobile van</t>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -688,14 +688,24 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -739,7 +749,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -747,24 +757,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>public transportation</t>
+          <t>ambulance</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -776,22 +776,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>mobile van</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -803,22 +808,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>An outdoor environment set in an expanse of water.</t>
+          <t>A site which is an outdoor location outside of a building.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -830,7 +835,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -838,14 +843,19 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>forest area</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -857,22 +867,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -884,22 +899,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -929,7 +944,7 @@
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>ENVO:00000091</t>
         </is>
@@ -943,7 +958,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -951,19 +966,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>road</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -993,7 +1008,7 @@
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>ENVO:00000106</t>
         </is>
@@ -1007,7 +1022,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1015,19 +1030,14 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1039,27 +1049,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1071,76 +1076,71 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000006</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BFO:0000006</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>country of intervention</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>United Kingdom; Spain</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1184,71 +1184,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:026001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>country of intervention</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>OMRSE:00000061</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1260,27 +1260,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -1292,27 +1292,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1365,18 +1365,13 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>multiple occupancy residence</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>bedsit</t>
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -1388,27 +1383,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>temporary residence</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>student hall</t>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -1420,27 +1415,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>multiple occupancy residence</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>retirement home</t>
+          <t>bedsit</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -1452,22 +1447,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -1479,27 +1479,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>community facility</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
+          <t>retirement home</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -1511,22 +1511,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>library facility</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -1538,7 +1543,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1547,18 +1552,18 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>arts and entertainment facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>cinema; theatre; disco</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -1570,27 +1575,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>hospitality and catering facility</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>diner; restaurant; pub; bar</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -1602,39 +1602,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:026031</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>social centre or Community Hall facility</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A community facility used for socialising by those living in a given area.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>YMCA; working mens club</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1643,18 +1633,18 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>mosque; church; temple</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -1666,7 +1656,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1675,18 +1665,18 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -1698,22 +1688,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -1725,22 +1720,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>factory facility</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>dentist facility</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -1752,32 +1747,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>community healthcare facility</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
+          <t>polyclinic</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -1789,27 +1779,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -1821,7 +1806,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1830,18 +1815,13 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>care home facility</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -1853,22 +1833,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -1880,49 +1865,54 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>criminal justice facility</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>prison</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>hospice facility</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
+          <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -1934,7 +1924,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>OMRSE:00000064</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1943,45 +1933,35 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>school facility</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -1993,22 +1973,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -2020,27 +2005,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>psychiatric facility</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
+          <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -2052,7 +2032,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2061,18 +2041,13 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>vocational facility</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>general practitioners surgery; doctor surgery</t>
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -2084,7 +2059,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2093,18 +2068,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>community healthcare facility</t>
+          <t>early years facility</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>polyclinic</t>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -2116,22 +2091,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -2143,7 +2118,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2151,19 +2126,19 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>criminal justice facility</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>prison</t>
+          <t>army; navy; air force</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -2175,7 +2150,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>BCIO:026039</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2183,14 +2158,14 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>educational facility</t>
+          <t>factory facility</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -2202,22 +2177,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>vocational facility</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -2229,7 +2209,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2238,18 +2218,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursery school </t>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -2261,7 +2241,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2270,13 +2250,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>university facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -2288,7 +2273,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2297,40 +2282,45 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sport and exercise facility</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -2342,22 +2332,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -2369,22 +2364,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>BCIO:026031</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>social centre or Community Hall facility</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
+          <t>A community facility used for socialising by those living in a given area.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>YMCA; working mens club</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -2396,7 +2396,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2404,19 +2404,14 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>retail facility</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>supermarket; market; shopping centre</t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -2428,7 +2423,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2436,19 +2431,24 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>army; navy; air force</t>
+          <t>research lab</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -2460,29 +2460,44 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
-        </is>
-      </c>
+          <t>BCIO:026036</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>retail facility</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>A facility used as an outlet for shopping.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2490,31 +2505,16 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>beach</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2524,12 +2524,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -2559,7 +2559,7 @@
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>ENVO:00000064</t>
         </is>
@@ -2573,12 +2573,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2588,12 +2588,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -2649,14 +2649,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>area social and economic condition</t>
+          <t>population and resource density</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2664,12 +2664,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -2681,7 +2676,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2689,14 +2684,14 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>low-income area</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -2708,7 +2703,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2716,19 +2711,14 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>high-income area</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>developed country</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -2740,22 +2730,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>suburban area</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -2767,22 +2757,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026004</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>urban area</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -2794,7 +2789,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2802,14 +2797,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>rural area</t>
+          <t>high-income area</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2829,14 +2829,14 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>suburban area</t>
+          <t>low-income area</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -444,32 +444,32 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
           <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Setting</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -535,12 +535,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>BFO:0000020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>forest area</t>
+          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -548,49 +548,29 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>BCIO:026003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>attribute of location</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+          <t>Features of a given location, such as social and economic characteristics.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -599,79 +579,89 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000141</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
-        </is>
-      </c>
+          <t>BCIO:026004</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>area social and economic condition</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>disadvantaged area; crime rates; World Bank Classifications</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>BCIO:026006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>high-income area</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>BFO_0000029</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>developed country</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026041</t>
+          <t>BCIO:026005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>low-income area</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NCIT_C141286</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -680,35 +670,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:026042</t>
+          <t>BCIO:026007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>population and resource density</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
+          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>bus; train; plane</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>NCIT:C141287</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -717,7 +697,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>BCIO:026008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -725,22 +705,17 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>suburban area</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>car; bicycle; motorbike</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -749,7 +724,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:026045</t>
+          <t>BCIO:050914</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -757,17 +732,17 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>urban area</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -776,7 +751,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:050915</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -784,22 +759,17 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>rural area</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>mobile van</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -808,189 +778,169 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A site which is an outdoor location outside of a building.</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>ENVO:00000562</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>forest area</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ENVO:00000111</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>ENVO:00000106</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ENVO:00000562</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>BFO:0000141</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000141</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>An outdoor environment set in an expanse of water.</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>BFO:0000006</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>GAZ:00000448</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>BCIO:026001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -998,31 +948,31 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>country of intervention</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location of a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>United Kingdom; Spain</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>BCIO:026002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1030,120 +980,145 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>within-country location</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A geographical location within a country.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026049</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>path or pavement for pedestrians</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of persons only on land.</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>BFO_0000029</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026050</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>path or pavement for cyclists</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>A path or pavement for the passage of people using bicycles only on land.</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Methods of traveling from one place to another.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NCIT_C141286</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BFO:0000006</t>
+          <t>BCIO:026044</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000006</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>mobile van</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GAZ:00000448</t>
+          <t>BCIO:026045</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ambulance</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>GAZ:00000448</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+          <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1152,7 +1127,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026002</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1160,31 +1135,36 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>within-country location</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A geographical location within a country.</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Region; Town; City; State; New York; Rotterdam</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NCIT:C141287</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>bus; train; plane</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026001</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1192,66 +1172,76 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>country of intervention</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>A geographical location of a country where the intervention takes place.</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>United Kingdom; Spain</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>car; bicycle; motorbike</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:026046</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A site which is an outdoor location outside of a building.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000061</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>architectural structure</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>path or pavement</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1260,30 +1250,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>BCIO:026049</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>path or pavement for pedestrians</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+          <t>A path or pavement for the passage of persons only on land.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1292,30 +1277,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>BCIO:026050</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>path or pavement for cyclists</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+          <t>A path or pavement for the passage of people using bicycles only on land.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1324,121 +1304,121 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026013</t>
+          <t>ENVO:00000064</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>homeless setting</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>A residential facility where an individual is living that is not stable and secure.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:026009</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ENVO:00000562</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:026014</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>temporary residence</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>grassland area</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hostels; BandB; emergency accomnodation</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ENVO:00000106</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:026010</t>
+          <t>BCIO:026047</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>multiple occupancy residence</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+          <t>An outdoor environment set in an expanse of water.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
-        <is>
-          <t>bedsit</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1447,126 +1427,106 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:026011</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>student residence</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where many students live.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>student hall</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:026012</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>residential care or assisted living</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>A multiple occupancy residence where multiple vulnerable people live</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>retirement home</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000061</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
+          <t>A material entity that is a human made strcuture with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1575,56 +1535,71 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>hospital outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026013</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1633,30 +1608,30 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>homeless setting</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>PDRO:0000074</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A residential facility where an individual is living that is not stable and secure.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026016</t>
+          <t>BCIO:026014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1665,30 +1640,30 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>doctor-led primary care facility</t>
+          <t>temporary residence</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>A healthcare facility led by doctors.</t>
+          <t>A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>general practitioners surgery; doctor surgery</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>BCIO:026010</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1697,107 +1672,112 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>multiple occupancy residence</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>OMRSE:00000104</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>bedsit</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:026021</t>
+          <t>BCIO:026011</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>dentist facility</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>student residence</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A healthcare facility where dental healthcare is provided.</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A multiple occupancy residence where many students live.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>student hall</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:026019</t>
+          <t>BCIO:026012</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>community healthcare facility</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>residential care or assisted living</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>A clinic providing healthcare services to people in a certain area</t>
+          <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>polyclinic</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>retirement home</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:026020</t>
+          <t>BCIO:026009</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>community outpatient clinic facility</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
+          <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1806,34 +1786,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:026017</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>care home facility</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1842,53 +1827,48 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>community healthcare facility</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>NCIT:C53536</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A clinic providing healthcare services to people in a certain area</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>polyclinic</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:026038</t>
+          <t>BCIO:026020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>criminal justice facility</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>community outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
+          <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
-        <is>
-          <t>prison</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1897,34 +1877,39 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:026022</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>educational facility</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>pharmacy facility</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A facility in which formal education is provided to a student population.</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PDRO:0000074</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OMRSE:00000064</t>
+          <t>BCIO:026021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1933,38 +1918,43 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>school facility</t>
+          <t>dentist facility</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A healthcare facility where dental healthcare is provided.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:026024</t>
+          <t>BCIO:026017</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>primary school</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>care home facility</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A school facility for younger children, typically aged between five and eleven.</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
+          <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -1973,66 +1963,71 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:026026</t>
+          <t>BCIO:026051</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>secondary school</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>high school</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NCIT:C53536</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:026025</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>middle school</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>hospice facility</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>A school facility providing education between primary and secondary school.</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:026027</t>
+          <t>BCIO:026016</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2041,25 +2036,30 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>vocational facility</t>
+          <t>doctor-led primary care facility</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A healthcare facility led by doctors.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:026023</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2068,80 +2068,70 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>early years facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>An educational facility in which pre-school education is provided.</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursery school </t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:026028</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>university facility</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>An educational facility in which students study for degrees and academic research is done.</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>military facility</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>hospital outpatient clinic facility</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
-        <is>
-          <t>army; navy; air force</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2150,7 +2140,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:026039</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2158,26 +2148,31 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>factory facility</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility relating to or characteristic of soldiers or armed forces</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>army; navy; air force</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:026029</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2185,63 +2180,63 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>community facility</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>food bank; recycling centre</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>supermarket; market; shopping centre</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:026035</t>
+          <t>BCIO:026029</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>arts and entertainment facility</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>community facility</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>A community facility designed to entertain or amuse.</t>
+          <t>A facility used by a group of people living in the same place or having a particular characteristic in common.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cinema; theatre; disco</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>food bank; recycling centre</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:026033</t>
+          <t>BCIO:026030</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2250,30 +2245,30 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>religious facility</t>
+          <t>sport and exercise facility</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
+          <t>A community facility used for exercising.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>mosque; church; temple</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:026032</t>
+          <t>BCIO:026035</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2282,25 +2277,30 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>library facility</t>
+          <t>arts and entertainment facility</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>A community facility containing a collection of books and learning resources for loan.</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility designed to entertain or amuse.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>cinema; theatre; disco</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:026030</t>
+          <t>BCIO:026032</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2309,21 +2309,16 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>sport and exercise facility</t>
+          <t>library facility</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A community facility used for exercising.</t>
+          <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
-        <is>
-          <t>gym; stadium; tennis court; swimming pool</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2332,7 +2327,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:026034</t>
+          <t>BCIO:026033</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2341,23 +2336,23 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>hospitality and catering facility</t>
+          <t>religious facility</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A community facility used to serve food.</t>
+          <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>diner; restaurant; pub; bar</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>mosque; church; temple</t>
         </is>
       </c>
     </row>
@@ -2384,46 +2379,51 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>YMCA; working mens club</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Setting</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BCIO:026034</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>office facility</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>hospitality and catering facility</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A community facility used to serve food.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>BCIO:026038</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2431,36 +2431,31 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>criminal justice facility</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>research lab</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ENVO:00000469</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>prison</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2468,71 +2463,81 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>retail facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>supermarket; market; shopping centre</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ENVO:00000469</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>research lab</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
-        </is>
-      </c>
+          <t>BCIO:026037</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>office facility</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+          <t>BCIO:026039</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>factory facility</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ENVO:00000091</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
+          <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2541,30 +2546,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>road</t>
-        </is>
-      </c>
+          <t>BCIO:026022</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>educational facility</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ENVO:00000064</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
+          <t>A facility in which formal education is provided to a student population.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2573,74 +2573,74 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>grassland area</t>
-        </is>
-      </c>
+          <t>OMRSE:00000064</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>school facility</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000020</t>
-        </is>
-      </c>
+          <t>BCIO:026024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>primary school</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A school facility for younger children, typically aged between five and eleven.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:026003</t>
+          <t>BCIO:026025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>attribute of location</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>middle school</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Features of a given location, such as social and economic characteristics.</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
+          <t>A school facility providing education between primary and secondary school.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2649,52 +2649,57 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:026007</t>
+          <t>BCIO:026026</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>population and resource density</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>secondary school</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>high school</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050914</t>
+          <t>BCIO:026027</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>urban area</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>vocational facility</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>A population and resource density that involves a high density of human population and of a built environment consisting of structures and infrastructure designed to support human habitation.</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
+          <t>An educational facility providing practically based, occupationally-specific teaching.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2703,52 +2708,57 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050915</t>
+          <t>BCIO:026023</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>rural area</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>early years facility</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being outside of an urban or suburban area and has a low density of population and buildings.</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>An educational facility in which pre-school education is provided.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nursery school </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:026008</t>
+          <t>BCIO:026028</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>suburban area</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>university facility</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>A population and resource density that involves being on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
+          <t>An educational facility in which students study for degrees and academic research is done.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -2757,93 +2767,83 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:026004</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>ENVO:00000091</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>area social and economic condition</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>An attribute of location describing the overall socioeconomic state of a location.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>disadvantaged area; crime rates; World Bank Classifications</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ENVO:00000091</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:026006</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>ENVO:00000111</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>forest area</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>high-income area</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>developed country</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Setting</t>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ENVO:00000111</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:026005</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>BCIO:026000</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_026000</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>low-income area</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Setting/BCIO-setting-hierarchy.xlsx
+++ b/Setting/BCIO-setting-hierarchy.xlsx
@@ -522,7 +522,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -3117,7 +3117,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -3152,7 +3152,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of water.</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -3547,7 +3547,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -3607,7 +3607,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -3692,7 +3692,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of water.</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -3957,7 +3957,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood</t>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -4152,7 +4152,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land.</t>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -4947,7 +4947,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>A facility that is run by a school organization and is the bearer of a school function</t>
+          <t>A facility that is run by a school organization and is the bearer of a school function.</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
+          <t>A mental process that has positive or negative valence.</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
